--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vumanhchien/Documents/Ai-app/ai-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CE0B19-248B-7849-BC77-BED353E7013D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6F70FE-AF44-0D41-BBB8-B67B47B0DF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="540">
   <si>
     <t>Tỷ lệ sinh viên có việc làm sau tốt nghiệp ngành Công nghệ kỹ thuật môi trường là bao nhiêu?</t>
   </si>
@@ -1093,9 +1093,6 @@
     <t>Học phí năm học 2024-2025 (K75): 470k/tín chỉ, khoảng 10tr/1HK</t>
   </si>
   <si>
-    <t>Thí sinh xét tuyển tuyển online nhé, trong trường hợp khó khăn có thể đến VP tuyển sinh thầy cô HD làm online</t>
-  </si>
-  <si>
     <t>Có, xét tuyển dựa trên điểm thi đánh giá tư duy do ĐH Bách khoa Hà Nội tổ chức.</t>
   </si>
   <si>
@@ -1145,230 +1142,523 @@
   </si>
   <si>
     <t>Hotline: 02435526713</t>
+  </si>
+  <si>
+    <t>Không cần em nhé!</t>
+  </si>
+  <si>
+    <t>Chào bạn! Tại Đại học Công nghệ Giao thông Vận tải (UTT), thời gian đào tạo trung bình cho các ngành học thường kéo dài khoảng 4 năm đối với hệ đại học chính quy. Điều này có thể thay đổi tùy thuộc vào ngành học cụ thể và chương trình đào tạo. Nếu bạn có thêm câu hỏi cụ thể về ngành mình quan tâm, đừng ngần ngại hỏi nhé!</t>
+  </si>
+  <si>
+    <t>Đ/c Vũ Ngọc Khiêm</t>
+  </si>
+  <si>
+    <t>Chào bạn! Đại học Công nghệ Giao thông Vận tải có cơ sở tại Hà Nội, nhưng cũng có cơ sở ở Vĩnh Phúc. Tùy thuộc vào ngành bạn chọn và kế hoạch đào tạo của trường mà bạn có thể học tại Vĩnh Phúc hoặc một trong những cơ sở khác của trường. Bạn có thể kiểm tra thông tin chi tiết trên trang chủ của trường để biết thêm về cơ sở học tập cho từng ngành nhé!</t>
+  </si>
+  <si>
+    <t>Tại Đại học Công nghệ Giao thông Vận tải, sinh viên có nhiều cơ hội tham gia nghiên cứu khoa học. Nhà trường thường xuyên tổ chức các cuộc thi và hội thảo nghiên cứu để khuyến khích sinh viên khám phá và phát triển ý tưởng sáng tạo của mình. Bạn cũng có thể làm việc cùng các giảng viên trong các dự án nghiên cứu thực tiễn. Đây là cơ hội tuyệt vời để nâng cao kỹ năng, tích lũy kinh nghiệm và đóng góp vào cộng đồng khoa học.</t>
+  </si>
+  <si>
+    <t>Chào em! Tại Đại học Công nghệ Giao thông Vận tải, các sinh viên ngành Logistics và Vận tải đa phương thức thường cần phải tự đăng ký học phần. Điều này giúp sinh viên có thể tự quản lý kế hoạch học tập của mình. Em nên theo dõi thông báo từ nhà trường hoặc liên hệ với phòng đào tạo để nắm rõ thời gian và quy trình đăng ký. Chúc em học tập tốt nhé!</t>
+  </si>
+  <si>
+    <t>GTA</t>
+  </si>
+  <si>
+    <t>Trường Đại học Công nghệ Giao thông Vận tải sử dụng tổng cộng 16 tổ hợp môn xét tuyển. Các tổ hợp xét tuyển sẽ được tính tương đương nhau, không có sự chênh lệch giữa các tổ hợp. A00: Toán, Vật lý, Hóa học A01: Toán, Vật lý, Tiếng Anh D01: Toán, Ngữ văn, Tiếng Anh D07: Toán, Hóa học, Tiếng Anh C00: Ngữ văn, Lịch sử, Địa lý C01: Ngữ văn, Toán, Lịch sử C04: Ngữ văn, Toán, Địa lý G01: Toán, Công nghệ, Tiếng Anh G02: Toán, Tin học, Tiếng Anh G03: Toán, GD kinh tế và pháp luật, Tiếng Anh G04: Toán, Ngữ văn, Vật lý G05: Toán, Ngữ văn, Hóa học G06: Toán, Ngữ văn, Sinh học G07: Toán, Ngữ văn, Tin học G08: Toán, Ngữ văn, Công nghệ G09: Toán, Ngữ văn, GD kinh tế và pháp luật</t>
+  </si>
+  <si>
+    <t>Chào bạn! Đại học Công nghệ Giao thông Vận tải (UTT) thường xuyên hợp tác với nhiều doanh nghiệp để tạo cơ hội việc làm cho sinh viên thông qua các chương trình tuyển dụng trực tiếp. Trường thường tổ chức các hội chợ việc làm, ngày hội tuyển dụng, và liên kết với các công ty để tạo điều kiện cho sinh viên tiếp xúc với nhà tuyển dụng ngay từ khi còn ngồi trên ghế nhà trường. Đây là một lợi thế lớn giúp sinh viên có thể tìm được công việc phù hợp ngay sau khi tốt nghiệp. Nếu bạn cần thêm thông tin chi tiết, mình khuyến khích bạn liên hệ với phòng công tác sinh viên của UTT nhé!</t>
+  </si>
+  <si>
+    <t>Đ/c Nguyễn Hoàng Long</t>
+  </si>
+  <si>
+    <t>Chào bạn! Đại học Công nghệ Giao thông Vận tải thường xuyên tổ chức các hội thảo và khóa học ngắn hạn dành cho sinh viên. Những hoạt động này giúp sinh viên có cơ hội nâng cao kiến thức và kỹ năng, cũng như cập nhật các xu hướng mới trong ngành. Để biết thêm thông tin chi tiết, bạn nên theo dõi thông báo từ phòng Đào tạo hoặc trang web chính thức của trường.</t>
+  </si>
+  <si>
+    <t>Chào bạn! Tại Đại học Công nghệ Giao thông Vận tải (UTT), sinh viên có rất nhiều cơ hội tham gia các chương trình tình nguyện. Các hoạt động này thường do Đoàn Thanh niên và Hội Sinh viên tổ chức, bao gồm các chiến dịch Mùa hè xanh, các hoạt động hiến máu nhân đạo, và các chương trình hỗ trợ cộng đồng khác. Tham gia những chương trình này không chỉ giúp bạn đóng góp cho xã hội mà còn phát triển kỹ năng mềm và gắn kết với bạn bè. Nếu cần thêm thông tin, bạn có thể liên hệ với phòng công tác sinh viên của trường nhé!</t>
+  </si>
+  <si>
+    <t>Đ/c Nguyễn Văn Lâm</t>
+  </si>
+  <si>
+    <t>Đại học Công nghệ Giao thông Vận tải (UTT) thường có các chương trình học bổng liên kết với doanh nghiệp để hỗ trợ sinh viên. Những học bổng này không chỉ giúp về mặt tài chính mà còn tạo cơ hội thực tập và làm việc sau khi tốt nghiệp. Để có thông tin chi tiết và cập nhật nhất, bạn có thể liên hệ trực tiếp với phòng Công tác Sinh viên của trường.</t>
+  </si>
+  <si>
+    <t>Đề án tuyển sinh năm 2025 của trường bao gồm 4 phương thức tuyển sinh: xét tuyển thẳng, xét tuyển dựa trên kết quả thi tốt nghiệp THPT, xét tuyển học bạ kết hợp, và xét tuyển qua kết quả thi đánh giá tư duy/năng lực</t>
+  </si>
+  <si>
+    <t>Chào em! Kết quả xét tuyển học bạ thường sẽ được công bố sau khi nhà trường hoàn thành quy trình xét tuyển và tổng hợp kết quả. Thông thường, điều này diễn ra trong vòng vài tuần sau khi hạn nộp hồ sơ kết thúc. Em nên theo dõi thông báo trên trang web chính thức của Đại học Công nghệ Giao thông Vận tải hoặc liên hệ trực tiếp với phòng tuyển sinh để có thông tin cụ thể nhất. Chúc em may mắn!</t>
+  </si>
+  <si>
+    <t>Để liên hệ với bộ phận tuyển sinh của Đại học Công nghệ Giao thông Vận tải (UTT), bạn có thể truy cập vào trang web chính thức của trường để tìm thông tin liên hệ cụ thể. Hoặc, bạn có thể ghé thăm trực tiếp cơ sở của trường tại Hà Nội để được hỗ trợ chi tiết hơn. Nếu cần thêm thông tin, bạn có thể tham khảo qua các kênh mạng xã hội hoặc gọi điện thoại đến số hotline tuyển sinh của trường.</t>
+  </si>
+  <si>
+    <t>Tùy kế hoạch mỗi năm nhưng thường các bạn sẽ học quân sự 12 tuần tại Vĩnh Phúc nhé</t>
+  </si>
+  <si>
+    <t>Trường xét tuyển tối đa 5 nguyện vọng</t>
+  </si>
+  <si>
+    <t>Đại học Công nghệ Giao thông Vận tải (UTT) cung cấp nhiều sân chơi thể thao cho sinh viên, bao gồm sân bóng đá, sân bóng chuyền, sân cầu lông và các phòng tập gym. Điều này tạo điều kiện thuận lợi để sinh viên rèn luyện sức khỏe và tham gia các hoạt động thể thao.</t>
+  </si>
+  <si>
+    <t>Chào bạn! Trường Đại học Công nghệ Giao thông Vận tải có rất nhiều câu lạc bộ để bạn tham gia, nhằm phát triển kỹ năng và sở thích của mình. Một số câu lạc bộ tiêu biểu gồm có CLB học thuật, CLB thể thao, CLB văn nghệ và CLB tình nguyện. Nếu bạn cần thêm thông tin chi tiết hoặc muốn biết cách tham gia, hãy liên hệ với Phòng Công tác Sinh viên của trường nhé!</t>
+  </si>
+  <si>
+    <t>Đại học Công nghệ Giao thông Vận tải (UTT) cung cấp một môi trường học tập năng động và chuyên nghiệp tại Hà Nội. Ở đây, sinh viên được tiếp cận với cơ sở vật chất hiện đại và đội ngũ giảng viên giàu kinh nghiệm. UTT chú trọng vào việc kết hợp giữa lý thuyết và thực hành, giúp sinh viên phát triển toàn diện kỹ năng và kiến thức trong lĩnh vực giao thông và công nghệ. Hơn nữa, trường còn tổ chức nhiều hoạt động ngoại khóa và sự kiện, tạo điều kiện cho sinh viên giao lưu, học hỏi và phát triển kỹ năng mềm.</t>
+  </si>
+  <si>
+    <t>Cộng điểm ưu tiên cho thí sinh đạt giải HSG cấp tỉnh/thành phố, có chứng chỉ IELTS ≥ 4.5, hoặc có thành tích học sinh giỏi.</t>
+  </si>
+  <si>
+    <t>Chào bạn! Tại Đại học Công nghệ Giao thông Vận tải, lịch học cuối tuần (thứ 7, chủ nhật) có thể khác nhau tùy theo chương trình học và khoá học cụ thể. Một số chương trình có thể có lịch học vào cuối tuần, đặc biệt là các khóa học bán thời gian hoặc chương trình đào tạo đặc biệt. Để biết thông tin chi tiết về lịch học của bạn, bạn nên kiểm tra thời khóa biểu hoặc liên hệ với phòng đào tạo của trường nhé!</t>
+  </si>
+  <si>
+    <t>Để tra cứu kết quả trúng tuyển vào Trường Đại học Công nghệ Giao thông Vận tải, bạn có thể thực hiện theo các bước sau: Tra cứu trên website của trường: Truy cập vào trang web tuyển sinh của trường tại địa chỉ https://xettuyen.utc.edu.vn/. Tìm đến mục "Tra cứu kết quả tuyển sinh". Nhập mã số thí sinh hoặc số báo danh và thông tin cần thiết khác để tra cứu kết quả. Tra cứu trên hệ thống của Bộ Giáo dục và Đào tạo: Truy cập vào địa chỉ http://thisinh.thitotnghiepthpt.edu.vn/. Đăng nhập bằng số CMND/CCCD/Mã định danh và mật khẩu đã được cấp. Chọn mục "Tra cứu kết quả xét tuyển sinh" để xem kết quả. Nếu cần hỗ trợ thêm, bạn có thể liên hệ với Văn phòng Tuyển sinh của trường qua số điện thoại 0243.552.67133.</t>
+  </si>
+  <si>
+    <t>Chào bạn! Trường Đại học Công nghệ Giao thông Vận tải có cơ sở tại Cầu Giấy, Hà Nội. Nếu bạn có thêm câu hỏi, cứ thoải mái hỏi nhé!</t>
+  </si>
+  <si>
+    <t>E liên hệ với cô Hoài phụ trách KTX nhé 0914325892</t>
+  </si>
+  <si>
+    <t>520,000đ/1 tín chỉ cho chương trình đại trà, 1.5 lần mức này cho chương trình tăng cường ngoại ngữ.</t>
+  </si>
+  <si>
+    <t>Phường Đồng Tâm, Tp. Vĩnh Yên, Tỉnh Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>https://zalo.me/dhcngtvt</t>
+  </si>
+  <si>
+    <t>Thí sinh tham khảo điểm chuẩn năm 2024: https://utt.edu.vn/tuyensinh/tuyen-sinh-dai-hoc/thong-bao-diem-chuan-trung-tuyen-dai-hoc-chinh-quy-nam-2024-a15781.html và https://utt.edu.vn/tuyensinh/tuyen-sinh-dai-hoc/thong-bao-diem-chuan-xet-tuyen-som-dai-hoc-chinh-quy-phuong-thuc-xet-tuyen-hoc-ba-ket-hop-dot-1-nam-2024-a15622.html</t>
+  </si>
+  <si>
+    <t>Đ/c Nguyễn Mạnh Hùng</t>
+  </si>
+  <si>
+    <t>Chào bạn! Hiện nay, một số ngành học của Đại học Công nghệ Giao thông Vận tải (UTT) đang được nhiều bạn sinh viên quan tâm và lựa chọn. Đây thường là các ngành liên quan đến kỹ thuật giao thông, công nghệ thông tin, và logistics. Những lĩnh vực này không chỉ có nhu cầu nhân lực cao mà còn mở ra nhiều cơ hội việc làm hấp dẫn trong tương lai. Nếu bạn cần thêm thông tin chi tiết về từng chương trình học, mình khuyên bạn nên liên hệ trực tiếp với phòng tư vấn tuyển sinh của trường nhé!</t>
+  </si>
+  <si>
+    <t>Trường mình có nhiều loại học bổng, đặc biệt là với sinh viên năm nhất, trong tuần Sinh hoạt công dân các thầy cô sẽ nói cụ thể</t>
+  </si>
+  <si>
+    <t>Thông tin về thời gian có giấy báo trúng tuyển hiện đang cập nhật, em theo dõi thêm trên website của Nhà trường nhé!</t>
+  </si>
+  <si>
+    <t>Có, trường Đại học Công nghệ Giao thông Vận tải ở Hà Nội có căng tin để phục vụ sinh viên. Nếu bạn cần thêm thông tin chi tiết về vị trí hoặc giờ mở cửa, hãy liên hệ với văn phòng hỗ trợ sinh viên của trường!</t>
+  </si>
+  <si>
+    <t>Chào bạn! Trường Đại học Công nghệ Giao thông Vận tải (UTT) thường xuyên cập nhật chương trình đào tạo để bắt kịp các xu hướng công nghệ mới. Nhà trường cam kết mang đến cho sinh viên nền tảng kiến thức và kỹ năng phù hợp với nhu cầu thực tế của ngành công nghiệp. Điều này giúp sinh viên tốt nghiệp từ UTT luôn sẵn sàng cho thị trường lao động đang thay đổi nhanh chóng.</t>
+  </si>
+  <si>
+    <t>Văn phòng tuyển sinh: 02435526713</t>
+  </si>
+  <si>
+    <t>Em liên hệ văn phòng tuyển sinh của Nhà trường nhé!</t>
+  </si>
+  <si>
+    <t>Trường Đại học Công nghệ Giao thông vận tải (UTT)</t>
+  </si>
+  <si>
+    <t>Nhà trường có 3 cơ sở đào tạo tại Hà nội, Vĩnh Phúc và Thái Nguyên. Sinh viên học tại 3 cơ sở đều chung nhau: Chương trình đào tạo, giáo trình bài giảng, giảng viên, cùng Bằng tốt nghiệp</t>
+  </si>
+  <si>
+    <t>Có em, nhà trường xét tuyển theo thứ tự nguyện vọng, trúng tuyển tại NV nào sẽ dừng tại NV đó</t>
+  </si>
+  <si>
+    <t>Trong tuần sinh hoạt công dân trường sẽ có hướng dẫn</t>
+  </si>
+  <si>
+    <t>Nhà trường có đồng phục em nhé!</t>
+  </si>
+  <si>
+    <t>Có em</t>
+  </si>
+  <si>
+    <t>Chào bạn! Cơ sở vật chất của Đại học Công nghệ Giao thông Vận tải (UTT) bao gồm các phòng học, phòng thí nghiệm được trang bị hiện đại, thư viện với nhiều tài liệu học tập và nghiên cứu, khu ký túc xá tiện nghi cho sinh viên, cùng với các khu thể thao và giải trí. Tất cả nhằm hỗ trợ tốt nhất cho việc học tập và phát triển toàn diện của sinh viên.</t>
+  </si>
+  <si>
+    <t>TRƯỜNG ĐH CÔNG NGHỆ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t>Tại Đại học Công nghệ Giao thông Vận tải, sinh viên chủ yếu học theo hệ thống tín chỉ. Điều này có nghĩa là bạn sẽ tự đăng ký các môn học theo nhu cầu và theo kế hoạch học tập của mình, thay vì học theo lớp cố định với thời khóa biểu được xếp sẵn. Điều này cho phép bạn linh hoạt hơn trong việc lựa chọn môn học và tối ưu hóa thời gian học tập của mình.</t>
+  </si>
+  <si>
+    <t>Năm 2025, Nhà trường có 4 phương thức xét tuyển. Chi tiết hơn ở đây em nhé: https://utt.edu.vn/tuyensinh/tuyen-sinh/dai-hoc-chinh-quy/phuong-huong-tuyen-sinh-dai-hoc-chinh-quy-nam-2025-a16088.html</t>
+  </si>
+  <si>
+    <t>Phân hiệu Hà Nội: 54 Triều Khúc, Thanh Xuân, Tp. Hà Nội; Trung tâm đào tạo Thái Nguyên: P. Tân Thịnh, Tp. Thái Nguyên, T. Thái Nguyên</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/utt.vn</t>
+  </si>
+  <si>
+    <t>Trường công lập em nhé</t>
+  </si>
+  <si>
+    <t>Em thuộc đối tượng con thương bệnh binh, đối tượng ưu tiên thì điền không thì bỏ qua nhé</t>
+  </si>
+  <si>
+    <t>Nếu bạn đã đăng ký thành công nhưng vẫn chưa nhận được email, có thể do một số nguyên nhân sau: Thời gian xử lý: Trường có thể cần một chút thời gian để xử lý và gửi email xác nhận. Kiểm tra hộp thư rác: Đôi khi email có thể bị lọc vào hộp thư rác, vì vậy bạn nên kiểm tra cả hộp thư rác. Kiểm tra thông tin đăng ký: Đảm bảo rằng địa chỉ email bạn cung cấp khi đăng ký là chính xác. Liên hệ với trường: Nếu vẫn chưa nhận được email, bạn có thể liên hệ trực tiếp với phòng tuyển sinh của trường để được hỗ trợ. Số điện thoại tư vấn tuyển sinh của trường là 02435526713.</t>
+  </si>
+  <si>
+    <t>Chào em! Trường Đại học Công nghệ Giao thông Vận tải có nhiều câu lạc bộ để sinh viên tham gia, trong đó có câu lạc bộ bóng đá. Đây là nơi rất tốt để em gặp gỡ bạn bè có cùng sở thích và rèn luyện sức khỏe. Nếu em quan tâm, có thể tìm hiểu thêm thông tin và tham gia các buổi sinh hoạt của câu lạc bộ nhé!</t>
+  </si>
+  <si>
+    <t>Chào bạn, thời gian công bố kết quả tuyển sinh thường được thông báo cụ thể trên trang web chính thức của Đại học Công nghệ Giao thông Vận tải hoặc qua email từ phòng tuyển sinh. Mình khuyên bạn nên kiểm tra thường xuyên các kênh thông tin này để cập nhật nhanh nhất. Nếu bạn cần hỗ trợ thêm, đừng ngần ngại liên hệ với phòng tuyển sinh của trường nhé!</t>
+  </si>
+  <si>
+    <t>Chào bạn! Gần đây, sinh viên trường Đại học Công nghệ Giao thông Vận tải (UTT) đã đạt được nhiều thành tựu ấn tượng. Đáng chú ý, các nhóm sinh viên của trường đã tham gia và đoạt giải cao trong nhiều cuộc thi cấp quốc gia và quốc tế về công nghệ và kỹ thuật. Ngoài ra, nhiều sinh viên cũng đã thực hiện các dự án nghiên cứu khoa học được công nhận, góp phần nâng cao danh tiếng của trường. UTT luôn tự hào về sự xuất sắc và nỗ lực của các bạn sinh viên trong các lĩnh vực học tập và nghiên cứu.</t>
+  </si>
+  <si>
+    <t>Chào bạn! Thời gian nghỉ hè thường được quy định theo lịch học của từng năm học cụ thể. Để biết chính xác, bạn nên kiểm tra trên trang web của trường hoặc liên hệ với phòng đào tạo để có thông tin chi tiết nhé. Nếu có thêm câu hỏi nào, mình sẵn lòng giúp đỡ!</t>
+  </si>
+  <si>
+    <t>Fanpage: https://www.facebook.com/utt.vn; Zalo: https://zalo.me/dhcngtvt</t>
+  </si>
+  <si>
+    <t>Thời hạn nhận đơn học song song 2 chuyển ngành là trước khi học kỳ mới 4 tuần, em phải đảm bảo ngành chính của em điểm luôn phải trên 2.0</t>
+  </si>
+  <si>
+    <t>Chào bạn! Tại Đại học Công nghệ Giao thông Vận tải ở Hà Nội, giờ học sớm nhất thường bắt đầu vào buổi sáng từ khoảng 7:00. Giờ học muộn nhất có thể kết thúc vào buổi tối khoảng 21:00. Tuy nhiên, để biết chi tiết hơn về lịch học cụ thể của mình, bạn nên kiểm tra với phòng đào tạo hoặc các thông báo của khoa. Chúc bạn học tập tốt!</t>
+  </si>
+  <si>
+    <t>Trường Đại học Công nghệ Giao thông Vận tải không trực thuộc Trường Đại học Giao thông Vận tải Cầu Giấy. Cả hai trường đều chuyên đào tạo về lĩnh vực giao thông vận tải nhưng là hai đơn vị độc lập. Trường Đại học Công nghệ Giao thông Vận tải có trụ sở tại số 54 Triều Khúc, Thanh Xuân, Hà Nộ</t>
+  </si>
+  <si>
+    <t>Chào em! Thời gian khai giảng và bế giảng hàng năm của Đại học Công nghệ Giao thông Vận tải (UTT) thường không cố định và có thể thay đổi tùy theo kế hoạch từng năm học. Thông thường, năm học mới thường bắt đầu vào tháng 9, và bế giảng vào tháng 5 hoặc tháng 6. Tuy nhiên, để biết thông tin chính xác cho năm học hiện tại, em nên theo dõi các thông báo chính thức trên trang web của trường hoặc liên hệ trực tiếp với phòng đào tạo. Chúc em những trải nghiệm học tập thú vị ở UTT!</t>
+  </si>
+  <si>
+    <t>Trụ sở chính: Phường Đồng Tâm, Tp. Vĩnh Yên, Tỉnh Vĩnh Phúc; Phân hiệu Hà Nội: 54 Triều Khúc, Thanh Xuân, Tp. Hà Nội; Trung tâm đào tạo Thái Nguyên: P. Tân Thịnh, Tp. Thái Nguyên, T. Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Cơ sở Hà Nội của Đại học Công nghệ Giao thông Vận tải nằm tại địa chỉ số 54 Triều Khúc, quận Thanh Xuân, Hà Nội.</t>
+  </si>
+  <si>
+    <t>Cho em hỏi học phí năm 2024 của trường bao nhiều 1 tín chỉ ạ</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>02435526713</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có. Năm 2025, UTT duy trì **4 phương thức tuyển sinh**, trong đó **phương thức 3 là xét tuyển học bạ THPT kết hợp**. Thí sinh dùng điểm cả năm lớp 10, 11, 12 của các môn trong tổ hợp đăng ký; tổng điểm ≥ 18 và được cộng ưu tiên nếu đạt giải HSG, có IELTS ≥ 4.5… </t>
+  </si>
+  <si>
+    <t>Theo khảo sát việc làm năm 2023, **96,4 % sinh viên UTT có việc làm hoặc học lên sau 12 tháng tốt nghiệp**; 80 % làm đúng/ gần ngành đào tạo.</t>
+  </si>
+  <si>
+    <t>Ngành CNTT tuân theo 4 phương thức tuyển sinh chung; điểm chuẩn thường thuộc nhóm cao nhất (23 – 26 điểm ở cơ sở Hà Nội). Tổ hợp áp dụng: A00, A01, D01, D07.</t>
+  </si>
+  <si>
+    <t>Khoảng 95% em nhé!</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>Sĩ số trung bình **35 – 45 sinh viên/lớp** đối với chương trình chuẩn; chương trình CLC giới hạn 40.</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Được. Điều kiện xét học bạ là tổng điểm tổ hợp ≥ 18 và không yêu cầu cả 3 năm đều giỏi; chỉ cần tốt nghiệp THPT.</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>số lượng đăng ký không hạn chế em nhé!</t>
+  </si>
+  <si>
+    <t>Sinh viên được **xét chuyển ngành** sau khi hoàn thành ít nhất 1 học kỳ, đạt điểm trung bình ≥ 2,5/4 và ngành chuyển đến còn chỉ tiêu. Thủ tục nộp tại Phòng Đào tạo trước tuần 3 mỗi học kỳ.</t>
+  </si>
+  <si>
+    <t>UTT hiện có **9 khoa chuyên môn**: Công trình; Công nghệ thông tin; Quản trị; Kinh tế vận tải; Khoa học ứng dụng; Cơ sở kỹ thuật; Luật – Chính trị; Môi trường, cùng Viện cơ khí động lực.</t>
+  </si>
+  <si>
+    <t>Theo HD thông báo tuyển sinh 2025, em xem thêm ở đây nhé https://utt.edu.vn/tuyensinh/tuyen-sinh/dai-hoc-chinh-quy/phuong-huong-tuyen-sinh-dai-hoc-chinh-quy-nam-2025-a16088.html</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Thông tin sẽ được Nhà trường cập nhật trên website tuyển sinh; thí sinh vui lòng theo dõi hoặc liên hệ hotline 024 35526713 để được tư vấn trực tiếp.</t>
+  </si>
+  <si>
+    <t>Sinh viên có thể **đăng ký học song ngành** sau khi hoàn thành năm nhất, GPA ≥ 2,8/4; thời gian đào tạo 4,5–5 năm để nhận hai bằng cử nhân/kỹ sư.</t>
+  </si>
+  <si>
+    <t>UTT có Quỹ hỗ trợ Khởi nghiệp và Vườn ươm Sáng tạo; sinh viên có thể đăng ký dự án để nhận mentor và gọi vốn hạt giống.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trung bình **1 giảng viên/20 sinh viên**; 40 % giảng viên có học vị Tiến sĩ trở lên. </t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>Trường có **Trung tâm CNTT – Thư viện** cung cấp tài liệu, phòng học nhóm, hướng dẫn tra cứu, cũng như hỗ trợ học ngoại ngữ và kỹ năng mềm cho sinh viên.</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTT cấp **học bổng khuyến khích học tập 10 % – 100 % học phí** mỗi học kỳ cho sinh viên đạt học lực &amp; rèn luyện loại Khá trở lên, cùng nhiều học bổng doanh nghiệp trị giá 5–50 triệu đ/năm.  </t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Thí sinh xét tuyển online nhé, trong trường hợp khó khăn có thể đến VP tuyển sinh thầy cô HD làm online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cơ sở Hà Nội: **Số 54 Phố Triều Khúc, Thanh Xuân Nam, Thanh Xuân, Hà Nội**. Ngoài ra trường có cơ sở Vĩnh Phúc (Khu Đô thị Sông Hồng Thủ đô, TP Vĩnh Yên) và Thái Nguyên (P. Tân Thịnh, TP Thái Nguyên). </t>
+  </si>
+  <si>
+    <t>Tổng chỉ tiêu dự kiến năm 2025 của Trường Đại học Công nghệ GTVT là **khoảng 6 000 sinh viên** cho ba cơ sở Hà Nội, Vĩnh Phúc và Thái Nguyên.</t>
+  </si>
+  <si>
+    <t>Nhà trường ký kết với hơn 200 doanh nghiệp trong lĩnh vực Giao thông, CNTT, Logistics; sinh viên năm 3–4 **được giới thiệu thực tập hoặc thực tập hưởng lương** tại doanh nghiệp đối tác.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tham khảo năm 2024: ngành **Công nghệ thông tin** 23,7 – 26 điểm (tùy cơ sở/chương trình); đa số ngành kỹ thuật, kinh tế lấy 18 – 24 điểm. Điểm 2025 có thể dao động ±1 điểm. </t>
+  </si>
+  <si>
+    <t>Trường Đại học Công nghệ GTVT là **trường ĐẠI HỌC CÔNG LẬP** trực thuộc Bộ Xây dựng.</t>
+  </si>
+  <si>
+    <t>Điểm sàn (ngưỡng đảm bảo chất lượng đầu vào) năm 2024 của UTT là **15 – 18 điểm** tùy ngành; năm 2025 sẽ được công bố sau kỳ thi THPTQG.</t>
+  </si>
+  <si>
+    <t>Sinh viên được phép làm thêm; Nhà trường có **Cổng việc làm bán thời gian** trên hệ thống sinh viên để giới thiệu các công việc phù hợp.</t>
+  </si>
+  <si>
+    <t>Tốt nghiệp THPT, tổng điểm tổ hợp &gt;= ngưỡng sàn; không vi phạm quy chế; riêng xét học bạ cần điểm ≥ 18 và hạnh kiểm Khá trở lên.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các tổ hợp chính: A00 (Toán‑Lý‑Hóa), A01 (Toán‑Lý‑Anh), D01 (Toán‑Văn‑Anh), D07 (Toán‑Hóa‑Anh) cùng 12 tổ hợp mới C00, C01, C04, G01‑G09. </t>
+  </si>
+  <si>
+    <t>Trong chương trình đào tạo sẽ có các học phần thực tập dành cho sinh viên, tuỳ theo các ngành mà khối lượng thực tập sẽ khác nhau nhé!</t>
+  </si>
+  <si>
+    <t>24,54 điểm - ngành Logistics &amp; Quản lý chuỗi cung ứng (cơ sở Hà Nội)</t>
+  </si>
+  <si>
+    <t>Trường **chấp nhận điểm kỳ thi Đánh giá năng lực của ĐHQGHN, ĐHSPHN và Đánh giá tư duy của ĐHBKHN** trong năm 2025 để xét tuyển (phương thức 4).</t>
+  </si>
+  <si>
+    <t>Năm 2025, Nhà trường có 4 phương thức xét tuyển:
+Phương thức xét tuyển thẳng theo quy định của Bộ Giáo dục và Đào tạo.
+Phương thức xét tuyển dựa trên kết quả thi tốt nghiệp THPT năm 2025.
+Phương thức xét tuyển học bạ kết hợp.
+Phương thức xét tuyển dựa trên kết quả thi đánh giá tư duy, đánh giá năng lực năm 2025.</t>
+  </si>
+  <si>
+    <t>Trường có hơn **25 CLB sinh viên** (học thuật, thể thao, nghệ thuật); trong đó CLB IT, CLB Logistics, CLB Khởi nghiệp được nhiều sinh viên tham gia.</t>
+  </si>
+  <si>
+    <t>Có! Sinh viên UTT được nhiều khách mời và đối tác – kể cả sinh viên quốc tế – nhận xét là gần gũi, thân thiện và chủ động giúp đỡ người khác:
+Trong buổi tổng kết chương trình thực tập với sinh viên Trường Ritsumeikan Asia Pacific University (Nhật Bản), các thực tập sinh nhận xét sinh viên UTT “rất gần gũi, thân thiện, luôn chủ động tiếp nhận kiến thức và hỗ trợ mọi người” 
+Nhà trường thường xuyên tổ chức chuyên đề về “văn hóa học đường văn minh, năng động và thân thiện”, khuyến khích sinh viên rèn luyện kỹ năng giao tiếp, làm việc nhóm và tôn trọng lẫn nhau 
+Ngoài môi trường lớp học, hơn 25 câu lạc bộ học thuật – tình nguyện giúp sinh viên nhanh chóng làm quen, gắn kết và hỗ trợ bạn mới (các CLB IT DevClub, Logistics, Khởi nghiệp, Tình nguyện UTT Green…). Vì vậy, bạn có thể yên tâm rằng cộng đồng sinh viên UTT khá “dễ gần” và sẵn sàng giúp đỡ.</t>
   </si>
   <si>
     <t>Nếu bạn chưa nhận được email trúng tuyển từ Trường Đại học Công nghệ Giao thông Vận tải, có thể do một số nguyên nhân sau:
 Thời gian gửi email: Trường thường gửi thông báo trúng tuyển sau khi công bố điểm chuẩn, thông thường là sau ngày 19 tháng 8 hàng năm
 Kiểm tra hộp thư rác: Đôi khi email có thể bị lọc vào hộp thư rác, vì vậy bạn nên kiểm tra cả hộp thư rác.
 Kiểm tra thông tin đăng ký: Đảm bảo rằng địa chỉ email bạn cung cấp khi đăng ký xét tuyển là chính xác.
-Liên hệ với trường: Nếu vẫn chưa nhận được email, bạn có thể liên hệ trực tiếp với phòng tuyển sinh của trường để được hỗ trợ. Số điện thoại tư vấn tuyển sinh của trường là 024355267137.
+Liên hệ với trường: Nếu vẫn chưa nhận được email, bạn có thể liên hệ trực tiếp với phòng tuyển sinh của trường để được hỗ trợ. Số điện thoại tư vấn tuyển sinh của trường là 024355267137
 Kiểm tra kết quả trúng tuyển trực tuyến: Bạn cũng có thể kiểm tra kết quả trúng tuyển trực tuyến trên hệ thống xét tuyển của Bộ Giáo dục và Đào tạo hoặc trang web của trường</t>
   </si>
   <si>
-    <t>Không cần em nhé!</t>
-  </si>
-  <si>
-    <t>Chào bạn! Tại Đại học Công nghệ Giao thông Vận tải (UTT), thời gian đào tạo trung bình cho các ngành học thường kéo dài khoảng 4 năm đối với hệ đại học chính quy. Điều này có thể thay đổi tùy thuộc vào ngành học cụ thể và chương trình đào tạo. Nếu bạn có thêm câu hỏi cụ thể về ngành mình quan tâm, đừng ngần ngại hỏi nhé!</t>
-  </si>
-  <si>
-    <t>Đ/c Vũ Ngọc Khiêm</t>
-  </si>
-  <si>
-    <t>Chào bạn! Đại học Công nghệ Giao thông Vận tải có cơ sở tại Hà Nội, nhưng cũng có cơ sở ở Vĩnh Phúc. Tùy thuộc vào ngành bạn chọn và kế hoạch đào tạo của trường mà bạn có thể học tại Vĩnh Phúc hoặc một trong những cơ sở khác của trường. Bạn có thể kiểm tra thông tin chi tiết trên trang chủ của trường để biết thêm về cơ sở học tập cho từng ngành nhé!</t>
-  </si>
-  <si>
-    <t>Tại Đại học Công nghệ Giao thông Vận tải, sinh viên có nhiều cơ hội tham gia nghiên cứu khoa học. Nhà trường thường xuyên tổ chức các cuộc thi và hội thảo nghiên cứu để khuyến khích sinh viên khám phá và phát triển ý tưởng sáng tạo của mình. Bạn cũng có thể làm việc cùng các giảng viên trong các dự án nghiên cứu thực tiễn. Đây là cơ hội tuyệt vời để nâng cao kỹ năng, tích lũy kinh nghiệm và đóng góp vào cộng đồng khoa học.</t>
-  </si>
-  <si>
-    <t>Chào em! Tại Đại học Công nghệ Giao thông Vận tải, các sinh viên ngành Logistics và Vận tải đa phương thức thường cần phải tự đăng ký học phần. Điều này giúp sinh viên có thể tự quản lý kế hoạch học tập của mình. Em nên theo dõi thông báo từ nhà trường hoặc liên hệ với phòng đào tạo để nắm rõ thời gian và quy trình đăng ký. Chúc em học tập tốt nhé!</t>
-  </si>
-  <si>
-    <t>GTA</t>
-  </si>
-  <si>
-    <t>Trường Đại học Công nghệ Giao thông Vận tải sử dụng tổng cộng 16 tổ hợp môn xét tuyển. Các tổ hợp xét tuyển sẽ được tính tương đương nhau, không có sự chênh lệch giữa các tổ hợp. A00: Toán, Vật lý, Hóa học A01: Toán, Vật lý, Tiếng Anh D01: Toán, Ngữ văn, Tiếng Anh D07: Toán, Hóa học, Tiếng Anh C00: Ngữ văn, Lịch sử, Địa lý C01: Ngữ văn, Toán, Lịch sử C04: Ngữ văn, Toán, Địa lý G01: Toán, Công nghệ, Tiếng Anh G02: Toán, Tin học, Tiếng Anh G03: Toán, GD kinh tế và pháp luật, Tiếng Anh G04: Toán, Ngữ văn, Vật lý G05: Toán, Ngữ văn, Hóa học G06: Toán, Ngữ văn, Sinh học G07: Toán, Ngữ văn, Tin học G08: Toán, Ngữ văn, Công nghệ G09: Toán, Ngữ văn, GD kinh tế và pháp luật</t>
-  </si>
-  <si>
-    <t>Chào bạn! Đại học Công nghệ Giao thông Vận tải (UTT) thường xuyên hợp tác với nhiều doanh nghiệp để tạo cơ hội việc làm cho sinh viên thông qua các chương trình tuyển dụng trực tiếp. Trường thường tổ chức các hội chợ việc làm, ngày hội tuyển dụng, và liên kết với các công ty để tạo điều kiện cho sinh viên tiếp xúc với nhà tuyển dụng ngay từ khi còn ngồi trên ghế nhà trường. Đây là một lợi thế lớn giúp sinh viên có thể tìm được công việc phù hợp ngay sau khi tốt nghiệp. Nếu bạn cần thêm thông tin chi tiết, mình khuyến khích bạn liên hệ với phòng công tác sinh viên của UTT nhé!</t>
-  </si>
-  <si>
-    <t>Đ/c Nguyễn Hoàng Long</t>
-  </si>
-  <si>
-    <t>Chào bạn! Đại học Công nghệ Giao thông Vận tải thường xuyên tổ chức các hội thảo và khóa học ngắn hạn dành cho sinh viên. Những hoạt động này giúp sinh viên có cơ hội nâng cao kiến thức và kỹ năng, cũng như cập nhật các xu hướng mới trong ngành. Để biết thêm thông tin chi tiết, bạn nên theo dõi thông báo từ phòng Đào tạo hoặc trang web chính thức của trường.</t>
-  </si>
-  <si>
-    <t>Chào bạn! Tại Đại học Công nghệ Giao thông Vận tải (UTT), sinh viên có rất nhiều cơ hội tham gia các chương trình tình nguyện. Các hoạt động này thường do Đoàn Thanh niên và Hội Sinh viên tổ chức, bao gồm các chiến dịch Mùa hè xanh, các hoạt động hiến máu nhân đạo, và các chương trình hỗ trợ cộng đồng khác. Tham gia những chương trình này không chỉ giúp bạn đóng góp cho xã hội mà còn phát triển kỹ năng mềm và gắn kết với bạn bè. Nếu cần thêm thông tin, bạn có thể liên hệ với phòng công tác sinh viên của trường nhé!</t>
-  </si>
-  <si>
-    <t>Đ/c Nguyễn Văn Lâm</t>
-  </si>
-  <si>
-    <t>Đại học Công nghệ Giao thông Vận tải (UTT) thường có các chương trình học bổng liên kết với doanh nghiệp để hỗ trợ sinh viên. Những học bổng này không chỉ giúp về mặt tài chính mà còn tạo cơ hội thực tập và làm việc sau khi tốt nghiệp. Để có thông tin chi tiết và cập nhật nhất, bạn có thể liên hệ trực tiếp với phòng Công tác Sinh viên của trường.</t>
-  </si>
-  <si>
-    <t>Đề án tuyển sinh năm 2025 của trường bao gồm 4 phương thức tuyển sinh: xét tuyển thẳng, xét tuyển dựa trên kết quả thi tốt nghiệp THPT, xét tuyển học bạ kết hợp, và xét tuyển qua kết quả thi đánh giá tư duy/năng lực</t>
-  </si>
-  <si>
-    <t>Chào em! Kết quả xét tuyển học bạ thường sẽ được công bố sau khi nhà trường hoàn thành quy trình xét tuyển và tổng hợp kết quả. Thông thường, điều này diễn ra trong vòng vài tuần sau khi hạn nộp hồ sơ kết thúc. Em nên theo dõi thông báo trên trang web chính thức của Đại học Công nghệ Giao thông Vận tải hoặc liên hệ trực tiếp với phòng tuyển sinh để có thông tin cụ thể nhất. Chúc em may mắn!</t>
-  </si>
-  <si>
-    <t>Để liên hệ với bộ phận tuyển sinh của Đại học Công nghệ Giao thông Vận tải (UTT), bạn có thể truy cập vào trang web chính thức của trường để tìm thông tin liên hệ cụ thể. Hoặc, bạn có thể ghé thăm trực tiếp cơ sở của trường tại Hà Nội để được hỗ trợ chi tiết hơn. Nếu cần thêm thông tin, bạn có thể tham khảo qua các kênh mạng xã hội hoặc gọi điện thoại đến số hotline tuyển sinh của trường.</t>
-  </si>
-  <si>
-    <t>Tùy kế hoạch mỗi năm nhưng thường các bạn sẽ học quân sự 12 tuần tại Vĩnh Phúc nhé</t>
-  </si>
-  <si>
-    <t>Trường xét tuyển tối đa 5 nguyện vọng</t>
-  </si>
-  <si>
-    <t>Đại học Công nghệ Giao thông Vận tải (UTT) cung cấp nhiều sân chơi thể thao cho sinh viên, bao gồm sân bóng đá, sân bóng chuyền, sân cầu lông và các phòng tập gym. Điều này tạo điều kiện thuận lợi để sinh viên rèn luyện sức khỏe và tham gia các hoạt động thể thao.</t>
-  </si>
-  <si>
-    <t>Chào bạn! Trường Đại học Công nghệ Giao thông Vận tải có rất nhiều câu lạc bộ để bạn tham gia, nhằm phát triển kỹ năng và sở thích của mình. Một số câu lạc bộ tiêu biểu gồm có CLB học thuật, CLB thể thao, CLB văn nghệ và CLB tình nguyện. Nếu bạn cần thêm thông tin chi tiết hoặc muốn biết cách tham gia, hãy liên hệ với Phòng Công tác Sinh viên của trường nhé!</t>
-  </si>
-  <si>
-    <t>Đại học Công nghệ Giao thông Vận tải (UTT) cung cấp một môi trường học tập năng động và chuyên nghiệp tại Hà Nội. Ở đây, sinh viên được tiếp cận với cơ sở vật chất hiện đại và đội ngũ giảng viên giàu kinh nghiệm. UTT chú trọng vào việc kết hợp giữa lý thuyết và thực hành, giúp sinh viên phát triển toàn diện kỹ năng và kiến thức trong lĩnh vực giao thông và công nghệ. Hơn nữa, trường còn tổ chức nhiều hoạt động ngoại khóa và sự kiện, tạo điều kiện cho sinh viên giao lưu, học hỏi và phát triển kỹ năng mềm.</t>
-  </si>
-  <si>
-    <t>Cộng điểm ưu tiên cho thí sinh đạt giải HSG cấp tỉnh/thành phố, có chứng chỉ IELTS ≥ 4.5, hoặc có thành tích học sinh giỏi.</t>
-  </si>
-  <si>
-    <t>Chào bạn! Tại Đại học Công nghệ Giao thông Vận tải, lịch học cuối tuần (thứ 7, chủ nhật) có thể khác nhau tùy theo chương trình học và khoá học cụ thể. Một số chương trình có thể có lịch học vào cuối tuần, đặc biệt là các khóa học bán thời gian hoặc chương trình đào tạo đặc biệt. Để biết thông tin chi tiết về lịch học của bạn, bạn nên kiểm tra thời khóa biểu hoặc liên hệ với phòng đào tạo của trường nhé!</t>
-  </si>
-  <si>
-    <t>Để tra cứu kết quả trúng tuyển vào Trường Đại học Công nghệ Giao thông Vận tải, bạn có thể thực hiện theo các bước sau: Tra cứu trên website của trường: Truy cập vào trang web tuyển sinh của trường tại địa chỉ https://xettuyen.utc.edu.vn/. Tìm đến mục "Tra cứu kết quả tuyển sinh". Nhập mã số thí sinh hoặc số báo danh và thông tin cần thiết khác để tra cứu kết quả. Tra cứu trên hệ thống của Bộ Giáo dục và Đào tạo: Truy cập vào địa chỉ http://thisinh.thitotnghiepthpt.edu.vn/. Đăng nhập bằng số CMND/CCCD/Mã định danh và mật khẩu đã được cấp. Chọn mục "Tra cứu kết quả xét tuyển sinh" để xem kết quả. Nếu cần hỗ trợ thêm, bạn có thể liên hệ với Văn phòng Tuyển sinh của trường qua số điện thoại 0243.552.67133.</t>
-  </si>
-  <si>
-    <t>Chào bạn! Trường Đại học Công nghệ Giao thông Vận tải có cơ sở tại Cầu Giấy, Hà Nội. Nếu bạn có thêm câu hỏi, cứ thoải mái hỏi nhé!</t>
-  </si>
-  <si>
-    <t>E liên hệ với cô Hoài phụ trách KTX nhé 0914325892</t>
-  </si>
-  <si>
-    <t>Chào bạn! Để tham gia chương trình trao đổi sinh viên tại Đại học Công nghệ Giao thông Vận tải, bạn thường cần đáp ứng một số điều kiện như:
-Kết quả học tập: Có thể yêu cầu điểm trung bình tích lũy tối thiểu.
-Trình độ ngoại ngữ: Thường cần chứng chỉ tiếng Anh hoặc ngôn ngữ của nước đến.
-Số tín chỉ đã hoàn thành: Bạn có thể cần hoàn thành một lượng tín chỉ nhất định trước khi tham gia.
-Thư giới thiệu/đề xuất: Thường cần từ giảng viên của bạn.
-Hồ sơ cá nhân: Bao gồm đơn đăng ký, kế hoạch học tập và mục tiêu cá nhân.
+    <t>Mỗi cơ sở có 1 – 2 canteen; cơ sở Hà Nội canteen chính nằm tại sân H2, phục vụ suất ăn, cà‑phê từ 7 h đến 19 h.</t>
+  </si>
+  <si>
+    <t>Mỗi cơ sở đều có ký túc xá 4–6 người/phòng; sinh viên diện chính sách được ưu tiên; giá 300 000–450 000 đ/tháng.</t>
+  </si>
+  <si>
+    <t>UTT có tuyển sinh Văn bằng 2 &amp; Liên thông chính quy nhiều đợt trong năm; chi tiết tại mục "Liên thông – VB2" trên website tuyển sinh.</t>
+  </si>
+  <si>
+    <t>Đợt 1 dự kiến nhận hồ sơ xét học bạ từ **tháng 3 đến hết tháng 6/2025**; các đợt sau theo lịch Bộ GD‑ĐT (đến giữa tháng 8).</t>
+  </si>
+  <si>
+    <t>Điểm chuẩn năm 2025 sẽ được công bố sau khi Bộ GD‑ĐT lọc ảo, dự kiến cuối **tháng 8/2025**. Thí sinh theo dõi tại cổng admissions của trường (xettuyen.utt.edu.vn).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhà trường giữ ổn định **4 phương thức xét tuyển**: (1) Tuyển thẳng theo quy định Bộ GD‑ĐT; (2) Xét kết quả thi tốt nghiệp THPT 2025; (3) Xét học bạ THPT kết hợp; (4) Xét kết quả các kỳ thi Đánh giá tư duy/năng lực 2025. </t>
+  </si>
+  <si>
+    <t>Các ngành kỹ thuật, CNTT đều có hệ thống phòng thí nghiệm: Phòng Lab Ô tô, Lab BIM, Trung tâm IoT, Network &amp; Security Lab, Phòng mô phỏng Logistics.</t>
+  </si>
+  <si>
+    <t>UTT là trường đại học công lập chuyên ngành giao thông vận tải, nằm trong nhóm các cơ sở đào tạo kỹ thuật‑công nghệ hàng đầu khối ngành Giao thông của Việt Nam; theo xếp hạng Webometrics 2024, trường đứng ~TOP 60 tại Việt Nam.</t>
+  </si>
+  <si>
+    <t>UTT hợp tác đào tạo **song bằng** với ĐH Tongmyong (Hàn Quốc) ngành Logistics; ĐH UTIM (Ba Lan) ngành CNTT; cùng các chương trình trao đổi 1 học kỳ với hơn 15 trường tại Nhật, Đức, Thái Lan.</t>
+  </si>
+  <si>
+    <t>Một số chương trình như Logistics, CNTT đã đạt **chuẩn AUN‑QA** và đang tiến tới chuẩn ABET giai đoạn 2025‑2027.</t>
+  </si>
+  <si>
+    <t>Sinh viên có thể đăng ký học vượt với điều kiện GPA ≥ 2,5/4 và khối lượng không vượt quá 25 TC/học kỳ.</t>
+  </si>
+  <si>
+    <t>Học phí năm 2025 dự kiến 385 000 – 540 000 đ/TC (tùy khối ngành). Học lại tính theo số tín chỉ đăng ký.</t>
+  </si>
+  <si>
+    <t>Chào bạn! Để tham gia chương trình trao đổi sinh viên tại Đại học Công nghệ Giao thông Vận tải, bạn thường cần đáp ứng một số điều kiện như:_x005F_x000D_
+_x005F_x000D_
+Kết quả học tập: Có thể yêu cầu điểm trung bình tích lũy tối thiểu._x005F_x000D_
+Trình độ ngoại ngữ: Thường cần chứng chỉ tiếng Anh hoặc ngôn ngữ của nước đến._x005F_x000D_
+Số tín chỉ đã hoàn thành: Bạn có thể cần hoàn thành một lượng tín chỉ nhất định trước khi tham gia._x005F_x000D_
+Thư giới thiệu/đề xuất: Thường cần từ giảng viên của bạn._x005F_x000D_
+Hồ sơ cá nhân: Bao gồm đơn đăng ký, kế hoạch học tập và mục tiêu cá nhân._x005F_x000D_
 Hãy liên hệ với phòng hợp tác quốc tế của trường để biết thêm chi tiết và nhận được tư vấn cụ thể nhé!</t>
   </si>
   <si>
-    <t>520,000đ/1 tín chỉ cho chương trình đại trà, 1.5 lần mức này cho chương trình tăng cường ngoại ngữ.</t>
-  </si>
-  <si>
-    <t>Phường Đồng Tâm, Tp. Vĩnh Yên, Tỉnh Vĩnh Phúc</t>
-  </si>
-  <si>
-    <t>https://zalo.me/dhcngtvt</t>
-  </si>
-  <si>
-    <t>Thí sinh tham khảo điểm chuẩn năm 2024: https://utt.edu.vn/tuyensinh/tuyen-sinh-dai-hoc/thong-bao-diem-chuan-trung-tuyen-dai-hoc-chinh-quy-nam-2024-a15781.html và https://utt.edu.vn/tuyensinh/tuyen-sinh-dai-hoc/thong-bao-diem-chuan-xet-tuyen-som-dai-hoc-chinh-quy-phuong-thuc-xet-tuyen-hoc-ba-ket-hop-dot-1-nam-2024-a15622.html</t>
-  </si>
-  <si>
-    <t>Đ/c Nguyễn Mạnh Hùng</t>
-  </si>
-  <si>
-    <t>Chào bạn! Hiện nay, một số ngành học của Đại học Công nghệ Giao thông Vận tải (UTT) đang được nhiều bạn sinh viên quan tâm và lựa chọn. Đây thường là các ngành liên quan đến kỹ thuật giao thông, công nghệ thông tin, và logistics. Những lĩnh vực này không chỉ có nhu cầu nhân lực cao mà còn mở ra nhiều cơ hội việc làm hấp dẫn trong tương lai. Nếu bạn cần thêm thông tin chi tiết về từng chương trình học, mình khuyên bạn nên liên hệ trực tiếp với phòng tư vấn tuyển sinh của trường nhé!</t>
-  </si>
-  <si>
-    <t>Trường mình có nhiều loại học bổng, đặc biệt là với sinh viên năm nhất, trong tuần Sinh hoạt công dân các thầy cô sẽ nói cụ thể</t>
-  </si>
-  <si>
-    <t>Thông tin về thời gian có giấy báo trúng tuyển hiện đang cập nhật, em theo dõi thêm trên website của Nhà trường nhé!</t>
-  </si>
-  <si>
-    <t>Có, trường Đại học Công nghệ Giao thông Vận tải ở Hà Nội có căng tin để phục vụ sinh viên. Nếu bạn cần thêm thông tin chi tiết về vị trí hoặc giờ mở cửa, hãy liên hệ với văn phòng hỗ trợ sinh viên của trường!</t>
-  </si>
-  <si>
-    <t>Chào bạn! Trường Đại học Công nghệ Giao thông Vận tải (UTT) thường xuyên cập nhật chương trình đào tạo để bắt kịp các xu hướng công nghệ mới. Nhà trường cam kết mang đến cho sinh viên nền tảng kiến thức và kỹ năng phù hợp với nhu cầu thực tế của ngành công nghiệp. Điều này giúp sinh viên tốt nghiệp từ UTT luôn sẵn sàng cho thị trường lao động đang thay đổi nhanh chóng.</t>
-  </si>
-  <si>
-    <t>Văn phòng tuyển sinh: 02435526713</t>
-  </si>
-  <si>
-    <t>Em liên hệ văn phòng tuyển sinh của Nhà trường nhé!</t>
-  </si>
-  <si>
-    <t>Trường Đại học Công nghệ Giao thông vận tải (UTT)</t>
-  </si>
-  <si>
-    <t>Nhà trường có 3 cơ sở đào tạo tại Hà nội, Vĩnh Phúc và Thái Nguyên. Sinh viên học tại 3 cơ sở đều chung nhau: Chương trình đào tạo, giáo trình bài giảng, giảng viên, cùng Bằng tốt nghiệp</t>
-  </si>
-  <si>
-    <t>Có em, nhà trường xét tuyển theo thứ tự nguyện vọng, trúng tuyển tại NV nào sẽ dừng tại NV đó</t>
-  </si>
-  <si>
-    <t>Trong tuần sinh hoạt công dân trường sẽ có hướng dẫn</t>
-  </si>
-  <si>
-    <t>Nhà trường có đồng phục em nhé!</t>
-  </si>
-  <si>
-    <t>Có em</t>
-  </si>
-  <si>
-    <t>Chào bạn! Cơ sở vật chất của Đại học Công nghệ Giao thông Vận tải (UTT) bao gồm các phòng học, phòng thí nghiệm được trang bị hiện đại, thư viện với nhiều tài liệu học tập và nghiên cứu, khu ký túc xá tiện nghi cho sinh viên, cùng với các khu thể thao và giải trí. Tất cả nhằm hỗ trợ tốt nhất cho việc học tập và phát triển toàn diện của sinh viên.</t>
-  </si>
-  <si>
-    <t>TRƯỜNG ĐH CÔNG NGHỆ GIAO THÔNG VẬN TẢI</t>
-  </si>
-  <si>
-    <t>Tại Đại học Công nghệ Giao thông Vận tải, sinh viên chủ yếu học theo hệ thống tín chỉ. Điều này có nghĩa là bạn sẽ tự đăng ký các môn học theo nhu cầu và theo kế hoạch học tập của mình, thay vì học theo lớp cố định với thời khóa biểu được xếp sẵn. Điều này cho phép bạn linh hoạt hơn trong việc lựa chọn môn học và tối ưu hóa thời gian học tập của mình.</t>
-  </si>
-  <si>
-    <t>Năm 2025, Nhà trường có 4 phương thức xét tuyển. Chi tiết hơn ở đây em nhé: https://utt.edu.vn/tuyensinh/tuyen-sinh/dai-hoc-chinh-quy/phuong-huong-tuyen-sinh-dai-hoc-chinh-quy-nam-2025-a16088.html</t>
-  </si>
-  <si>
-    <t>Phân hiệu Hà Nội: 54 Triều Khúc, Thanh Xuân, Tp. Hà Nội; Trung tâm đào tạo Thái Nguyên: P. Tân Thịnh, Tp. Thái Nguyên, T. Thái Nguyên</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/utt.vn</t>
-  </si>
-  <si>
-    <t>Trường công lập em nhé</t>
-  </si>
-  <si>
-    <t>Em thuộc đối tượng con thương bệnh binh, đối tượng ưu tiên thì điền không thì bỏ qua nhé</t>
-  </si>
-  <si>
-    <t>Nếu bạn đã đăng ký thành công nhưng vẫn chưa nhận được email, có thể do một số nguyên nhân sau: Thời gian xử lý: Trường có thể cần một chút thời gian để xử lý và gửi email xác nhận. Kiểm tra hộp thư rác: Đôi khi email có thể bị lọc vào hộp thư rác, vì vậy bạn nên kiểm tra cả hộp thư rác. Kiểm tra thông tin đăng ký: Đảm bảo rằng địa chỉ email bạn cung cấp khi đăng ký là chính xác. Liên hệ với trường: Nếu vẫn chưa nhận được email, bạn có thể liên hệ trực tiếp với phòng tuyển sinh của trường để được hỗ trợ. Số điện thoại tư vấn tuyển sinh của trường là 02435526713.</t>
-  </si>
-  <si>
-    <t>Chào em! Trường Đại học Công nghệ Giao thông Vận tải có nhiều câu lạc bộ để sinh viên tham gia, trong đó có câu lạc bộ bóng đá. Đây là nơi rất tốt để em gặp gỡ bạn bè có cùng sở thích và rèn luyện sức khỏe. Nếu em quan tâm, có thể tìm hiểu thêm thông tin và tham gia các buổi sinh hoạt của câu lạc bộ nhé!</t>
-  </si>
-  <si>
-    <t>Chào bạn, thời gian công bố kết quả tuyển sinh thường được thông báo cụ thể trên trang web chính thức của Đại học Công nghệ Giao thông Vận tải hoặc qua email từ phòng tuyển sinh. Mình khuyên bạn nên kiểm tra thường xuyên các kênh thông tin này để cập nhật nhanh nhất. Nếu bạn cần hỗ trợ thêm, đừng ngần ngại liên hệ với phòng tuyển sinh của trường nhé!</t>
-  </si>
-  <si>
-    <t>Chào bạn! Gần đây, sinh viên trường Đại học Công nghệ Giao thông Vận tải (UTT) đã đạt được nhiều thành tựu ấn tượng. Đáng chú ý, các nhóm sinh viên của trường đã tham gia và đoạt giải cao trong nhiều cuộc thi cấp quốc gia và quốc tế về công nghệ và kỹ thuật. Ngoài ra, nhiều sinh viên cũng đã thực hiện các dự án nghiên cứu khoa học được công nhận, góp phần nâng cao danh tiếng của trường. UTT luôn tự hào về sự xuất sắc và nỗ lực của các bạn sinh viên trong các lĩnh vực học tập và nghiên cứu.</t>
-  </si>
-  <si>
-    <t>Chào bạn! Thời gian nghỉ hè thường được quy định theo lịch học của từng năm học cụ thể. Để biết chính xác, bạn nên kiểm tra trên trang web của trường hoặc liên hệ với phòng đào tạo để có thông tin chi tiết nhé. Nếu có thêm câu hỏi nào, mình sẵn lòng giúp đỡ!</t>
-  </si>
-  <si>
-    <t>Fanpage: https://www.facebook.com/utt.vn; Zalo: https://zalo.me/dhcngtvt</t>
-  </si>
-  <si>
-    <t>Thời hạn nhận đơn học song song 2 chuyển ngành là trước khi học kỳ mới 4 tuần, em phải đảm bảo ngành chính của em điểm luôn phải trên 2.0</t>
-  </si>
-  <si>
-    <t>Chào bạn! Tại Đại học Công nghệ Giao thông Vận tải ở Hà Nội, giờ học sớm nhất thường bắt đầu vào buổi sáng từ khoảng 7:00. Giờ học muộn nhất có thể kết thúc vào buổi tối khoảng 21:00. Tuy nhiên, để biết chi tiết hơn về lịch học cụ thể của mình, bạn nên kiểm tra với phòng đào tạo hoặc các thông báo của khoa. Chúc bạn học tập tốt!</t>
-  </si>
-  <si>
-    <t>Trường Đại học Công nghệ Giao thông Vận tải không trực thuộc Trường Đại học Giao thông Vận tải Cầu Giấy. Cả hai trường đều chuyên đào tạo về lĩnh vực giao thông vận tải nhưng là hai đơn vị độc lập. Trường Đại học Công nghệ Giao thông Vận tải có trụ sở tại số 54 Triều Khúc, Thanh Xuân, Hà Nộ</t>
-  </si>
-  <si>
-    <t>Chào em! Thời gian khai giảng và bế giảng hàng năm của Đại học Công nghệ Giao thông Vận tải (UTT) thường không cố định và có thể thay đổi tùy theo kế hoạch từng năm học. Thông thường, năm học mới thường bắt đầu vào tháng 9, và bế giảng vào tháng 5 hoặc tháng 6. Tuy nhiên, để biết thông tin chính xác cho năm học hiện tại, em nên theo dõi các thông báo chính thức trên trang web của trường hoặc liên hệ trực tiếp với phòng đào tạo. Chúc em những trải nghiệm học tập thú vị ở UTT!</t>
-  </si>
-  <si>
-    <t>Trụ sở chính: Phường Đồng Tâm, Tp. Vĩnh Yên, Tỉnh Vĩnh Phúc; Phân hiệu Hà Nội: 54 Triều Khúc, Thanh Xuân, Tp. Hà Nội; Trung tâm đào tạo Thái Nguyên: P. Tân Thịnh, Tp. Thái Nguyên, T. Thái Nguyên</t>
-  </si>
-  <si>
-    <t>Cơ sở Hà Nội của Đại học Công nghệ Giao thông Vận tải nằm tại địa chỉ số 54 Triều Khúc, quận Thanh Xuân, Hà Nội.</t>
-  </si>
-  <si>
-    <t>Cho em hỏi học phí năm 2024 của trường bao nhiều 1 tín chỉ ạ</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>02435526713</t>
+    <t>Tiếng Anh là bắt buộc; sinh viên có thể chọn thêm Tiếng Nhật hoặc Tiếng Hàn ở các học phần tự chọn.</t>
+  </si>
+  <si>
+    <t>UTT tuyển sinh **liên thông Cao đẳng → Đại học** và **Văn bằng 2** nhiều đợt mỗi năm, học tập tại Hà Nội, Vĩnh Phúc hoặc online.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thí sinh có chứng chỉ IELTS ≥ 4.5 hoặc tương đương được quy đổi điểm, cộng ưu tiên khi xét học bạ hoặc dùng thay điểm môn Tiếng Anh trong tổ hợp xét tuyển. </t>
+  </si>
+  <si>
+    <t>Mỗi lớp có **cố vấn học tập**; sinh viên đặt lịch gặp hoặc gửi email. Trường cũng có **Trung tâm hỗ trợ sinh viên** và phòng Công tác sinh viên trực hotline 024 3552 6713.</t>
+  </si>
+  <si>
+    <t>Hơn 25 CLB: IT DevClub, CLB Logistics, CLB Khởi nghiệp, CLB tiếng Anh, CLB Âm nhạc, CLB Bóng rổ, CLB Tình nguyện UTT Green…</t>
+  </si>
+  <si>
+    <t>Đánh giá theo thang 4,0: điểm chuyên cần 10 %, giữa kỳ 30 %, cuối kỳ 60 %; một số môn theo chuẩn CDIO áp dụng dự án, thuyết trình.</t>
+  </si>
+  <si>
+    <t>Hằng năm (thường vào tháng 6), UTT tổ chức **Ngày hội việc làm &amp; Kết nối doanh nghiệp** với &gt; 80 doanh nghiệp tham dự, 2 000 vị trí tuyển dụng, phỏng vấn trực tiếp.</t>
+  </si>
+  <si>
+    <t>Tất cả giảng đường H1, H3 được trang bị **Smart Board, máy chiếu laser, wifi phủ toàn trường**; 20 phòng học thông minh hỗ trợ giảng dạy hybrid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đề án tuyển sinh 2025 liệt kê **65 ngành/chuyên ngành đại học** thuộc 5 khối: Công trình‑Xây dựng; Cơ khí‑Ô tô; CNTT‑Điện tử; Kinh tế‑Logistics; Môi trường; Luật‑Ngoại ngữ. </t>
+  </si>
+  <si>
+    <t>UTT triển khai **chương trình Chất lượng cao** cho các ngành CNTT, Logisitics, CNKT Ô tô… với sĩ số ≤ 40 SV/lớp, 40 % tín chỉ giảng dạy bằng tiếng Anh, giảng viên doanh nghiệp tham gia.</t>
+  </si>
+  <si>
+    <t>BH YT là bắt buộc theo Luật; sinh viên đóng cùng học phí mỗi năm (khoảng 704 000 đ/năm).</t>
+  </si>
+  <si>
+    <t>Trường đào tạo thạc sĩ 16 ngành (Xây dựng cầu đường bộ, Cơ khí ô tô, CNTT, Logistics…); Tiến sĩ 5 ngành (Kỹ thuật Xây dựng CTGT, Cơ kỹ thuật, Tự động hoá… ).</t>
+  </si>
+  <si>
+    <t>Khoảng 5-10ph em nhé!</t>
+  </si>
+  <si>
+    <t>Thư viện mở cửa 7 h30 – 21 h00 các ngày T2‑T6, 8 h00 – 17 h00 thứ 7; chủ nhật nghỉ.</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1734,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1752,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1763,10 +2055,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1781,8 +2073,8 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>62</v>
+      <c r="B3" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1797,24 +2089,24 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>634</v>
+      <c r="B5" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>7</v>
+      <c r="B6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>201</v>
+      <c r="B7" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1837,8 +2129,8 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>100</v>
+      <c r="B10" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1853,16 +2145,16 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>156</v>
+      <c r="B12" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>270</v>
+      <c r="B13" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1909,16 +2201,16 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>162</v>
+      <c r="B19" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>320</v>
+      <c r="B20" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1941,107 +2233,113 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>489</v>
+      <c r="B23" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>520</v>
+      <c r="B24" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>510</v>
+      <c r="B25" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>290</v>
+      <c r="B26" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>168</v>
+      <c r="B27" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>250</v>
+      <c r="B28" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>267</v>
+      <c r="B29" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>250</v>
+      <c r="B30" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>261</v>
+      <c r="B31" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>290</v>
+      <c r="B32" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>98</v>
+      <c r="B33" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>101</v>
+      <c r="B34" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
+      <c r="B35" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="B36" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -2071,6 +2369,9 @@
       <c r="A40" t="s">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2140,8 +2441,8 @@
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>1</v>
+      <c r="B49" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -2156,29 +2457,32 @@
       <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>477</v>
+      <c r="B51" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
+      <c r="B52" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>410</v>
+      <c r="B53" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>282</v>
+      <c r="B54" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -2193,24 +2497,24 @@
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>391</v>
+      <c r="B56" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>440</v>
+      <c r="B57" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>180</v>
+      <c r="B58" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -2225,30 +2529,33 @@
       <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>340</v>
+      <c r="B60" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>262</v>
+      <c r="B61" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>230</v>
+      <c r="B62" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
+      <c r="B63" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -2262,24 +2569,24 @@
       <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>425</v>
+      <c r="B65" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>425</v>
+      <c r="B66" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>57</v>
+      <c r="B67" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -2294,8 +2601,8 @@
       <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>72</v>
+      <c r="B69" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -2326,11 +2633,17 @@
       <c r="A73" t="s">
         <v>71</v>
       </c>
+      <c r="B73" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
+      <c r="B74" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -2344,13 +2657,16 @@
       <c r="A76" t="s">
         <v>74</v>
       </c>
+      <c r="B76" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>327</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -2365,13 +2681,16 @@
       <c r="A79" t="s">
         <v>77</v>
       </c>
+      <c r="B79" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B80">
-        <v>360</v>
+      <c r="B80" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -2386,8 +2705,8 @@
       <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>334</v>
+      <c r="B82" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -2402,24 +2721,33 @@
       <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B84">
-        <v>88</v>
+      <c r="B84" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
+      <c r="B85" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
+      <c r="B86" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
+      <c r="B87" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -2441,6 +2769,9 @@
       <c r="A90" t="s">
         <v>88</v>
       </c>
+      <c r="B90" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -2454,8 +2785,8 @@
       <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B92">
-        <v>350</v>
+      <c r="B92" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -2470,6 +2801,9 @@
       <c r="A94" t="s">
         <v>92</v>
       </c>
+      <c r="B94" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -2507,8 +2841,8 @@
       <c r="A99" t="s">
         <v>96</v>
       </c>
-      <c r="B99">
-        <v>346</v>
+      <c r="B99" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -2531,23 +2865,29 @@
       <c r="A102" t="s">
         <v>99</v>
       </c>
+      <c r="B102" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>100</v>
       </c>
+      <c r="B103" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>101</v>
       </c>
-      <c r="B104">
-        <v>113</v>
+      <c r="B104" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B105" t="s">
         <v>356</v>
@@ -2558,7 +2898,7 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>357</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -2566,28 +2906,40 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>104</v>
       </c>
+      <c r="B108" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>105</v>
       </c>
+      <c r="B109" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>106</v>
       </c>
+      <c r="B110" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>107</v>
       </c>
+      <c r="B111" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -2602,7 +2954,7 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -2610,38 +2962,47 @@
         <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>110</v>
       </c>
+      <c r="B115" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>111</v>
       </c>
+      <c r="B116" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>112</v>
       </c>
       <c r="B117" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>113</v>
       </c>
+      <c r="B118" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>114</v>
       </c>
       <c r="B119" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -2649,114 +3010,159 @@
         <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>116</v>
       </c>
+      <c r="B121" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>117</v>
       </c>
+      <c r="B122" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>118</v>
       </c>
       <c r="B123" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>119</v>
       </c>
+      <c r="B124" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>120</v>
       </c>
+      <c r="B125" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>121</v>
       </c>
+      <c r="B126" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>122</v>
       </c>
+      <c r="B127" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>123</v>
       </c>
+      <c r="B128" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>124</v>
       </c>
+      <c r="B129" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>125</v>
       </c>
+      <c r="B130" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>126</v>
       </c>
       <c r="B131" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>127</v>
       </c>
+      <c r="B132" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>128</v>
       </c>
+      <c r="B133" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>130</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>131</v>
       </c>
+      <c r="B136" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>132</v>
       </c>
+      <c r="B137" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>133</v>
       </c>
+      <c r="B138" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>134</v>
       </c>
       <c r="B139" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2764,7 +3170,7 @@
         <v>135</v>
       </c>
       <c r="B140" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2772,20 +3178,23 @@
         <v>136</v>
       </c>
       <c r="B141" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>137</v>
       </c>
+      <c r="B142" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2793,20 +3202,23 @@
         <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>140</v>
       </c>
+      <c r="B145" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>141</v>
       </c>
       <c r="B146" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2814,12 +3226,15 @@
         <v>142</v>
       </c>
       <c r="B147" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>143</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2827,7 +3242,7 @@
         <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2835,25 +3250,31 @@
         <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>146</v>
       </c>
+      <c r="B151" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>148</v>
       </c>
-      <c r="B153" t="s">
-        <v>375</v>
+      <c r="B153" s="3" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2861,51 +3282,63 @@
         <v>149</v>
       </c>
       <c r="B154" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>150</v>
       </c>
+      <c r="B155" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>152</v>
       </c>
+      <c r="B157" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>153</v>
       </c>
+      <c r="B158" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>155</v>
       </c>
+      <c r="B160" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2913,7 +3346,7 @@
         <v>157</v>
       </c>
       <c r="B162" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2928,8 +3361,8 @@
       <c r="A164" t="s">
         <v>159</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>445</v>
+      <c r="B164" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2937,7 +3370,7 @@
         <v>160</v>
       </c>
       <c r="B165" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2945,7 +3378,7 @@
         <v>161</v>
       </c>
       <c r="B166" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2953,25 +3386,31 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>163</v>
       </c>
+      <c r="B168" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>164</v>
       </c>
+      <c r="B169" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>165</v>
       </c>
       <c r="B170" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2979,46 +3418,55 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>167</v>
       </c>
+      <c r="B172" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>169</v>
       </c>
+      <c r="B174" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>171</v>
       </c>
+      <c r="B176" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -3026,18 +3474,24 @@
         <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>174</v>
       </c>
+      <c r="B179" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>175</v>
       </c>
+      <c r="B180" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -3059,31 +3513,40 @@
       <c r="A183" t="s">
         <v>178</v>
       </c>
+      <c r="B183" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>179</v>
       </c>
       <c r="B184" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>180</v>
       </c>
+      <c r="B185" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>181</v>
       </c>
+      <c r="B186" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -3091,30 +3554,39 @@
         <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>184</v>
       </c>
+      <c r="B189" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>185</v>
       </c>
+      <c r="B190" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>186</v>
       </c>
+      <c r="B191" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>187</v>
       </c>
       <c r="B192" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -3122,20 +3594,23 @@
         <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>189</v>
       </c>
+      <c r="B194" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>190</v>
       </c>
       <c r="B195" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -3143,7 +3618,7 @@
         <v>191</v>
       </c>
       <c r="B196" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -3151,7 +3626,7 @@
         <v>192</v>
       </c>
       <c r="B197" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -3159,30 +3634,39 @@
         <v>193</v>
       </c>
       <c r="B198" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>194</v>
       </c>
+      <c r="B199" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>195</v>
       </c>
+      <c r="B200" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>196</v>
       </c>
+      <c r="B201" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>197</v>
       </c>
       <c r="B202" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -3190,20 +3674,23 @@
         <v>198</v>
       </c>
       <c r="B203" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>199</v>
       </c>
+      <c r="B204" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>200</v>
       </c>
       <c r="B205" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -3211,7 +3698,7 @@
         <v>201</v>
       </c>
       <c r="B206" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -3219,20 +3706,23 @@
         <v>202</v>
       </c>
       <c r="B207" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>203</v>
       </c>
+      <c r="B208" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>204</v>
       </c>
       <c r="B209" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -3240,30 +3730,39 @@
         <v>205</v>
       </c>
       <c r="B210" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>206</v>
       </c>
+      <c r="B211" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>207</v>
       </c>
+      <c r="B212" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>208</v>
       </c>
+      <c r="B213" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>209</v>
       </c>
       <c r="B214" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -3271,57 +3770,72 @@
         <v>210</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>211</v>
       </c>
+      <c r="B216" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>213</v>
       </c>
+      <c r="B218" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>214</v>
       </c>
       <c r="B219" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>215</v>
       </c>
+      <c r="B220" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>216</v>
       </c>
       <c r="B221" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>217</v>
       </c>
+      <c r="B222" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>218</v>
       </c>
+      <c r="B223" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
@@ -3335,64 +3849,88 @@
       <c r="A225" t="s">
         <v>220</v>
       </c>
+      <c r="B225" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>221</v>
       </c>
+      <c r="B226" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>222</v>
       </c>
+      <c r="B227" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>223</v>
       </c>
       <c r="B228" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>224</v>
       </c>
+      <c r="B229" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>225</v>
       </c>
+      <c r="B230" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>226</v>
       </c>
+      <c r="B231" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>227</v>
       </c>
       <c r="B232" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>228</v>
       </c>
+      <c r="B233" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>229</v>
       </c>
+      <c r="B234" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>230</v>
       </c>
       <c r="B235" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -3400,20 +3938,23 @@
         <v>231</v>
       </c>
       <c r="B236" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>232</v>
       </c>
+      <c r="B237" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>233</v>
       </c>
       <c r="B238" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -3421,7 +3962,7 @@
         <v>234</v>
       </c>
       <c r="B239" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -3429,20 +3970,23 @@
         <v>235</v>
       </c>
       <c r="B240" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>236</v>
       </c>
+      <c r="B241" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>237</v>
       </c>
       <c r="B242" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -3450,7 +3994,7 @@
         <v>238</v>
       </c>
       <c r="B243" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -3458,58 +4002,79 @@
         <v>239</v>
       </c>
       <c r="B244" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>240</v>
       </c>
+      <c r="B245" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>241</v>
       </c>
+      <c r="B246" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>242</v>
       </c>
+      <c r="B247" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>243</v>
       </c>
+      <c r="B248" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>244</v>
       </c>
+      <c r="B249" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>245</v>
       </c>
+      <c r="B250" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>246</v>
       </c>
       <c r="B251" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>247</v>
       </c>
+      <c r="B252" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>248</v>
       </c>
       <c r="B253" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -3517,20 +4082,23 @@
         <v>249</v>
       </c>
       <c r="B254" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>250</v>
       </c>
+      <c r="B255" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>251</v>
       </c>
       <c r="B256" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -3538,7 +4106,7 @@
         <v>252</v>
       </c>
       <c r="B257" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -3546,25 +4114,31 @@
         <v>253</v>
       </c>
       <c r="B258" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>254</v>
       </c>
+      <c r="B259" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>255</v>
       </c>
+      <c r="B260" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>256</v>
       </c>
       <c r="B261" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -3572,7 +4146,7 @@
         <v>257</v>
       </c>
       <c r="B262" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -3580,20 +4154,23 @@
         <v>258</v>
       </c>
       <c r="B263" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>259</v>
       </c>
+      <c r="B264" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>260</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -3609,58 +4186,79 @@
         <v>262</v>
       </c>
       <c r="B267" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>263</v>
       </c>
+      <c r="B268" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>264</v>
       </c>
+      <c r="B269" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>265</v>
       </c>
+      <c r="B270" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>266</v>
       </c>
       <c r="B271" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>267</v>
       </c>
+      <c r="B272" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>268</v>
       </c>
+      <c r="B273" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>269</v>
       </c>
+      <c r="B274" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>270</v>
       </c>
+      <c r="B275" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>271</v>
       </c>
       <c r="B276" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -3668,20 +4266,23 @@
         <v>272</v>
       </c>
       <c r="B277" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>273</v>
       </c>
+      <c r="B278" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>274</v>
       </c>
       <c r="B279" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -3696,67 +4297,88 @@
       <c r="A281" t="s">
         <v>276</v>
       </c>
+      <c r="B281" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>277</v>
       </c>
+      <c r="B282" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>278</v>
       </c>
+      <c r="B283" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>279</v>
       </c>
       <c r="B284" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>280</v>
       </c>
+      <c r="B285" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>281</v>
       </c>
       <c r="B286" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>282</v>
       </c>
+      <c r="B287" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>283</v>
       </c>
+      <c r="B288" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>284</v>
       </c>
       <c r="B289" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>285</v>
       </c>
+      <c r="B290" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -3764,143 +4386,197 @@
         <v>287</v>
       </c>
       <c r="B292" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>288</v>
       </c>
+      <c r="B293" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>289</v>
       </c>
+      <c r="B294" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>290</v>
       </c>
+      <c r="B295" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>291</v>
       </c>
+      <c r="B296" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>292</v>
       </c>
+      <c r="B297" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>293</v>
       </c>
+      <c r="B298" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>294</v>
       </c>
       <c r="B299" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>295</v>
       </c>
+      <c r="B300" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>296</v>
       </c>
+      <c r="B301" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>297</v>
       </c>
       <c r="B302" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>298</v>
       </c>
+      <c r="B303" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>299</v>
       </c>
+      <c r="B304" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>300</v>
       </c>
+      <c r="B305" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>301</v>
       </c>
+      <c r="B306" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>302</v>
       </c>
+      <c r="B307" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>303</v>
       </c>
       <c r="B308" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>304</v>
       </c>
+      <c r="B309" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>305</v>
       </c>
+      <c r="B310" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>306</v>
       </c>
+      <c r="B311" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>307</v>
       </c>
       <c r="B312" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>308</v>
       </c>
+      <c r="B313" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>309</v>
       </c>
       <c r="B314" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>310</v>
       </c>
+      <c r="B315" t="s">
+        <v>539</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B215" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B265" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B215" r:id="rId1" xr:uid="{F7D1DE56-F291-3243-93F4-A9FAF092A684}"/>
+    <hyperlink ref="B265" r:id="rId2" xr:uid="{993B5716-99AE-0740-BE31-0D8F3067E5E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
